--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20940" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="618">
   <si>
     <t>TableName</t>
   </si>
@@ -1880,13 +1880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1930,6 +1924,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2195,26 +2195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2222,10 +2207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2239,12 +2224,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2285,6 +2264,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2292,15 +2277,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="输出" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="输出" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2599,6 +2581,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2631,12 +2614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2647,8 +2629,7 @@
     <col min="5" max="5" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="21" spans="1:5">
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2656,122 +2637,122 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="14.25" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="21" spans="1:10">
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>0</v>
@@ -2779,14 +2760,14 @@
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="H13" s="21" t="s">
+      <c r="E13" s="21"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
@@ -2795,121 +2776,121 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="19"/>
       <c r="J14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:5">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" ht="14.25" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" ht="21" spans="1:5">
+    <row r="24" spans="1:5" ht="20.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
         <v>0</v>
@@ -2917,122 +2898,122 @@
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:5">
+      <c r="B31" s="10"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:5">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" ht="14.25" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" ht="21" spans="1:5">
+    <row r="35" spans="1:5" ht="20.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
         <v>0</v>
@@ -3040,115 +3021,115 @@
       <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="s">
+      <c r="C38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:5">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:5">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" ht="14.25" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" ht="21" spans="1:5">
+    <row r="45" spans="1:5" ht="20.25">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
         <v>0</v>
@@ -3156,154 +3137,154 @@
       <c r="C45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14" t="s">
+      <c r="C48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14" t="s">
+      <c r="C49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16" t="s">
+      <c r="C52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:5">
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" ht="14.25" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" ht="21" spans="1:5">
+    <row r="58" spans="1:5" ht="20.25">
       <c r="A58" s="3"/>
       <c r="B58" s="5" t="s">
         <v>0</v>
@@ -3311,89 +3292,89 @@
       <c r="C58" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:5">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:5">
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" ht="14.25" spans="1:5">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" ht="21" spans="1:5">
+    <row r="66" spans="1:5" ht="20.25">
       <c r="A66" s="3"/>
       <c r="B66" s="5" t="s">
         <v>0</v>
@@ -3408,108 +3389,108 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3"/>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3"/>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3"/>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3"/>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16" t="s">
+      <c r="C71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:5">
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" ht="14.25" spans="1:5">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" ht="21" spans="1:5">
+    <row r="76" spans="1:5" ht="20.25">
       <c r="A76" s="3"/>
       <c r="B76" s="5" t="s">
         <v>0</v>
@@ -3524,82 +3505,82 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3"/>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3"/>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:5">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:5">
+      <c r="B81" s="15"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" ht="14.25" spans="1:5">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" ht="21" spans="1:5">
+    <row r="84" spans="1:5" ht="20.25">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="s">
         <v>0</v>
@@ -3614,133 +3595,133 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3"/>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3"/>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14" t="s">
+      <c r="D88" s="11"/>
+      <c r="E88" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3"/>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14" t="s">
+      <c r="C91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14" t="s">
+      <c r="C92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="16" t="s">
+      <c r="D93" s="13"/>
+      <c r="E93" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:5">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" ht="14.25" spans="1:5">
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3749,32 +3730,32 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D84:E84"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
   </cols>
@@ -3836,18 +3817,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H40" sqref="H40:I40"/>
     </sheetView>
   </sheetViews>
@@ -3862,14 +3843,14 @@
     <col min="11" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="21" spans="1:11">
+    <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -3877,10 +3858,10 @@
       <c r="C3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
         <v>0</v>
@@ -3888,934 +3869,934 @@
       <c r="I3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14" t="s">
+      <c r="I6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>140</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>147</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>150</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>153</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16" t="s">
+      <c r="I11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>156</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>159</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
         <v>162</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>168</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16" t="s">
+      <c r="I16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
         <v>171</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
         <v>174</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
         <v>177</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>186</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
         <v>189</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>192</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16" t="s">
+      <c r="I24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
         <v>195</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
         <v>198</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16" t="s">
+      <c r="I26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="s">
         <v>201</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="C28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16" t="s">
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
         <v>210</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3"/>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="s">
         <v>213</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16" t="s">
+      <c r="I31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14" t="s">
         <v>216</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16" t="s">
+      <c r="I32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
         <v>219</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16" t="s">
+      <c r="J33" s="13"/>
+      <c r="K33" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
         <v>222</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16" t="s">
+      <c r="I34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
         <v>225</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16" t="s">
+      <c r="I35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="s">
         <v>228</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16" t="s">
+      <c r="J36" s="13"/>
+      <c r="K36" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
+      <c r="C37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16" t="s">
+      <c r="I37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16" t="s">
+      <c r="C38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
         <v>234</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16" t="s">
+      <c r="I38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
         <v>238</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
         <v>240</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="16" t="s">
+      <c r="I40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:5">
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" ht="14.25" spans="1:5">
+    <row r="43" spans="1:11">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" ht="21" spans="1:5">
+    <row r="44" spans="1:11" ht="20.25">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
         <v>0</v>
@@ -4823,200 +4804,200 @@
       <c r="C44" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:11">
       <c r="A46" s="3"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:11">
       <c r="A47" s="3"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14" t="s">
+      <c r="C47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:11">
       <c r="A48" s="3"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14" t="s">
+      <c r="C49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="16" t="s">
+      <c r="C51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16" t="s">
+      <c r="C55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:5">
+      <c r="B57" s="18"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:5">
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" ht="14.25" spans="1:5">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" ht="21" spans="1:5">
+    <row r="61" spans="1:5" ht="20.25">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="s">
         <v>0</v>
@@ -5024,154 +5005,154 @@
       <c r="C61" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14" t="s">
+      <c r="C65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3"/>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="16" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3"/>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="16" t="s">
+      <c r="C67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3"/>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="16" t="s">
+      <c r="C68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:5">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16" t="s">
+      <c r="C69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="1:5">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="16" t="s">
+      <c r="C70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:5">
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" ht="14.25" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" ht="21" spans="1:5">
+    <row r="74" spans="1:5" ht="20.25">
       <c r="A74" s="3"/>
       <c r="B74" s="5" t="s">
         <v>0</v>
@@ -5179,122 +5160,122 @@
       <c r="C74" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3"/>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3"/>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14" t="s">
+      <c r="C78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3"/>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="16" t="s">
+      <c r="C79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="16" t="s">
+      <c r="C80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:5">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:5">
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" ht="14.25" spans="1:5">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" ht="21" spans="1:5">
+    <row r="85" spans="1:5" ht="20.25">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="s">
         <v>0</v>
@@ -5302,102 +5283,102 @@
       <c r="C85" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3"/>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14" t="s">
+      <c r="D88" s="11"/>
+      <c r="E88" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14" t="s">
+      <c r="C89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3"/>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="16" t="s">
+      <c r="C90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:5">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="19"/>
-    </row>
-    <row r="92" ht="14.25" spans="1:5">
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" ht="14.25" spans="1:5">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" ht="21" spans="1:5">
+    <row r="94" spans="1:5" ht="20.25">
       <c r="A94" s="3"/>
       <c r="B94" s="5" t="s">
         <v>0</v>
@@ -5405,167 +5386,167 @@
       <c r="C94" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14" t="s">
+      <c r="D97" s="11"/>
+      <c r="E97" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14" t="s">
+      <c r="C98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="16" t="s">
+      <c r="C99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="16" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="16" t="s">
+      <c r="C101" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3"/>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="16" t="s">
+      <c r="C102" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="16" t="s">
+      <c r="C103" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="16" t="s">
+      <c r="C104" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="19"/>
-    </row>
-    <row r="106" ht="14.25" spans="1:5">
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" ht="14.25" spans="1:5">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" ht="21" spans="1:5">
+    <row r="108" spans="1:5" ht="20.25">
       <c r="A108" s="3"/>
       <c r="B108" s="5" t="s">
         <v>0</v>
@@ -5573,168 +5554,168 @@
       <c r="C108" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E108" s="8"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3"/>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14" t="s">
+      <c r="D111" s="11"/>
+      <c r="E111" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3"/>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="14" t="s">
+      <c r="C112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="16" t="s">
+      <c r="D113" s="11"/>
+      <c r="E113" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3"/>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="16" t="s">
+      <c r="D114" s="13"/>
+      <c r="E114" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3"/>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="16" t="s">
+      <c r="C115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3"/>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="13"/>
+      <c r="E116" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3"/>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="16" t="s">
+      <c r="D117" s="13"/>
+      <c r="E117" s="14" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="16"/>
-    </row>
-    <row r="120" ht="14.25" spans="1:5">
+      <c r="B119" s="18"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="19"/>
-    </row>
-    <row r="121" ht="14.25" spans="1:5">
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="123" ht="14.25" spans="1:5">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" ht="21" spans="1:5">
+    <row r="124" spans="1:5" ht="20.25">
       <c r="A124" s="3"/>
       <c r="B124" s="5" t="s">
         <v>0</v>
@@ -5742,206 +5723,206 @@
       <c r="C124" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E124" s="8"/>
+      <c r="E124" s="21"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3"/>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14" t="s">
+      <c r="D127" s="11"/>
+      <c r="E127" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14" t="s">
+      <c r="C128" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="16" t="s">
+      <c r="D129" s="11"/>
+      <c r="E129" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="16" t="s">
+      <c r="D130" s="13"/>
+      <c r="E130" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="15"/>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="13"/>
+      <c r="E131" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3"/>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="15"/>
-      <c r="E132" s="16" t="s">
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3"/>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="16" t="s">
+      <c r="D133" s="13"/>
+      <c r="E133" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3"/>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="16" t="s">
+      <c r="C134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D135" s="15"/>
-      <c r="E135" s="16" t="s">
+      <c r="D135" s="13"/>
+      <c r="E135" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="16" t="s">
+      <c r="C136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="15"/>
-      <c r="E137" s="16" t="s">
+      <c r="D137" s="13"/>
+      <c r="E137" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:5">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="19"/>
-    </row>
-    <row r="139" ht="14.25" spans="1:5">
+      <c r="B138" s="15"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" ht="14.25" spans="1:5">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" ht="21" spans="1:5">
+    <row r="141" spans="1:5" ht="20.25">
       <c r="A141" s="3"/>
       <c r="B141" s="5" t="s">
         <v>0</v>
@@ -5949,239 +5930,239 @@
       <c r="C141" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="E141" s="8"/>
+      <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3"/>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3"/>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3"/>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="14" t="s">
+      <c r="D144" s="11"/>
+      <c r="E144" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14" t="s">
+      <c r="C145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="12" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="14" t="s">
+      <c r="D146" s="11"/>
+      <c r="E146" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C147" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="14" t="s">
+      <c r="C147" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="16" t="s">
+      <c r="D148" s="11"/>
+      <c r="E148" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3"/>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="15"/>
-      <c r="E149" s="16" t="s">
+      <c r="C149" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="13"/>
+      <c r="E149" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3"/>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D150" s="15"/>
-      <c r="E150" s="16" t="s">
+      <c r="D150" s="13"/>
+      <c r="E150" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D151" s="15"/>
-      <c r="E151" s="16" t="s">
+      <c r="D151" s="13"/>
+      <c r="E151" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3"/>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D152" s="15"/>
-      <c r="E152" s="16" t="s">
+      <c r="D152" s="13"/>
+      <c r="E152" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3"/>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="16" t="s">
+      <c r="D153" s="13"/>
+      <c r="E153" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3"/>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D154" s="15"/>
-      <c r="E154" s="16" t="s">
+      <c r="D154" s="13"/>
+      <c r="E154" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="16" t="s">
+      <c r="D155" s="13"/>
+      <c r="E155" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D156" s="15"/>
-      <c r="E156" s="16" t="s">
+      <c r="D156" s="13"/>
+      <c r="E156" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="16"/>
-    </row>
-    <row r="158" ht="14.25" spans="1:5">
+      <c r="B157" s="18"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="19"/>
-    </row>
-    <row r="159" ht="14.25" spans="1:5">
+      <c r="B158" s="15"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" ht="14.25" spans="1:5">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" ht="21" spans="1:5">
+    <row r="161" spans="1:5" ht="20.25">
       <c r="A161" s="3"/>
       <c r="B161" s="5" t="s">
         <v>0</v>
@@ -6189,162 +6170,162 @@
       <c r="C161" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E161" s="8"/>
+      <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="14" t="s">
+      <c r="D164" s="11"/>
+      <c r="E164" s="12" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="14" t="s">
+      <c r="C165" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="16" t="s">
+      <c r="D166" s="11"/>
+      <c r="E166" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="15"/>
-      <c r="E167" s="16" t="s">
+      <c r="C167" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="13"/>
+      <c r="E167" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3"/>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="15"/>
-      <c r="E168" s="16" t="s">
+      <c r="C168" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3"/>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="15"/>
-      <c r="E169" s="16" t="s">
+      <c r="C169" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="3"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="14"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="16"/>
-    </row>
-    <row r="173" ht="14.25" spans="1:5">
+      <c r="B172" s="18"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="19"/>
-    </row>
-    <row r="174" ht="14.25" spans="1:5">
+      <c r="B173" s="15"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" ht="14.25" spans="1:5">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" ht="21" spans="1:5">
+    <row r="176" spans="1:5" ht="20.25">
       <c r="A176" s="3"/>
       <c r="B176" s="5" t="s">
         <v>0</v>
@@ -6352,115 +6333,115 @@
       <c r="C176" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="E176" s="8"/>
+      <c r="E176" s="21"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3"/>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3"/>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E178" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="14" t="s">
+      <c r="D179" s="11"/>
+      <c r="E179" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3"/>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C180" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="13"/>
-      <c r="E180" s="14" t="s">
+      <c r="C180" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D181" s="13"/>
-      <c r="E181" s="16" t="s">
+      <c r="D181" s="11"/>
+      <c r="E181" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="15"/>
-      <c r="E182" s="16" t="s">
+      <c r="D182" s="13"/>
+      <c r="E182" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:5">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="19"/>
-    </row>
-    <row r="184" ht="14.25" spans="1:5">
+      <c r="B183" s="15"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="17"/>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" ht="14.25" spans="1:5">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" ht="21" spans="1:5">
+    <row r="186" spans="1:5" ht="20.25">
       <c r="A186" s="3"/>
       <c r="B186" s="5" t="s">
         <v>0</v>
@@ -6468,114 +6449,114 @@
       <c r="C186" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E186" s="8"/>
+      <c r="E186" s="21"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3"/>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3"/>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D189" s="13"/>
-      <c r="E189" s="14" t="s">
+      <c r="D189" s="11"/>
+      <c r="E189" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3"/>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C190" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="13"/>
-      <c r="E190" s="14" t="s">
+      <c r="C190" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D191" s="13"/>
-      <c r="E191" s="16" t="s">
+      <c r="D191" s="11"/>
+      <c r="E191" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3"/>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C192" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="15"/>
-      <c r="E192" s="16" t="s">
+      <c r="C192" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="13"/>
+      <c r="E192" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3"/>
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="15"/>
-      <c r="E193" s="16" t="s">
+      <c r="C193" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="13"/>
+      <c r="E193" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="194" ht="14.25" spans="1:5">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="19"/>
-    </row>
-    <row r="195" ht="14.25" spans="1:5">
+      <c r="B194" s="15"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6584,29 +6565,29 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D141:E141"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D186:E186"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
@@ -6622,14 +6603,14 @@
     <col min="11" max="11" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="21" spans="1:11">
+    <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -6637,10 +6618,10 @@
       <c r="C2" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="21"/>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
         <v>0</v>
@@ -6648,862 +6629,862 @@
       <c r="I2" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>140</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>147</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>153</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16" t="s">
+      <c r="I10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>156</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>159</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>162</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
         <v>168</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16" t="s">
+      <c r="I15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>171</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
         <v>174</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16" t="s">
+      <c r="I17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
         <v>177</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>186</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>189</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
         <v>192</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16" t="s">
+      <c r="I23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>195</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
         <v>198</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16" t="s">
+      <c r="I25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
         <v>201</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16" t="s">
+      <c r="I27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
         <v>210</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16" t="s">
+      <c r="I29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
         <v>213</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16" t="s">
+      <c r="I30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3"/>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="s">
         <v>216</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16" t="s">
+      <c r="I31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="14" t="s">
         <v>219</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16" t="s">
+      <c r="J32" s="13"/>
+      <c r="K32" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
         <v>222</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16" t="s">
+      <c r="I33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16" t="s">
+      <c r="I34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
         <v>228</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16" t="s">
+      <c r="J35" s="13"/>
+      <c r="K35" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="s">
         <v>231</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16" t="s">
+      <c r="I36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:11">
+    <row r="37" spans="1:11">
       <c r="A37" s="3"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:5">
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" ht="14.25" spans="1:5">
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" ht="21" spans="1:5">
+    <row r="40" spans="1:11" ht="20.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
         <v>0</v>
@@ -7511,200 +7492,200 @@
       <c r="C40" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:11">
       <c r="A42" s="3"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:11">
       <c r="A43" s="3"/>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="C43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
+      <c r="C45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:11">
       <c r="A46" s="3"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:11">
       <c r="A47" s="3"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="16" t="s">
+      <c r="C47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:11">
       <c r="A48" s="3"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16" t="s">
+      <c r="C51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:5">
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:5">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" ht="14.25" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" ht="21" spans="1:5">
+    <row r="57" spans="1:5" ht="20.25">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="s">
         <v>0</v>
@@ -7712,128 +7693,128 @@
       <c r="C57" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14" t="s">
+      <c r="C61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="16" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="16" t="s">
+      <c r="C63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:5">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:5">
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" ht="14.25" spans="1:5">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" ht="21" spans="1:5">
+    <row r="68" spans="1:5" ht="20.25">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="s">
         <v>0</v>
@@ -7841,116 +7822,116 @@
       <c r="C68" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3"/>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3"/>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14" t="s">
+      <c r="D71" s="11"/>
+      <c r="E71" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14" t="s">
+      <c r="C72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3"/>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="16" t="s">
+      <c r="C73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="16"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" ht="14.25" spans="1:5">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" ht="14.25" spans="1:5">
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" ht="14.25" spans="1:5">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" ht="21" spans="1:5">
+    <row r="79" spans="1:5" ht="20.25">
       <c r="A79" s="3"/>
       <c r="B79" s="5" t="s">
         <v>0</v>
@@ -7958,102 +7939,102 @@
       <c r="C79" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3"/>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3"/>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14" t="s">
+      <c r="C83" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3"/>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="16" t="s">
+      <c r="C84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:5">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" ht="14.25" spans="1:5">
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" ht="14.25" spans="1:5">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" ht="21" spans="1:5">
+    <row r="88" spans="1:5" ht="20.25">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="s">
         <v>0</v>
@@ -8061,167 +8042,167 @@
       <c r="C88" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="21"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3"/>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14" t="s">
+      <c r="C92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="16" t="s">
+      <c r="C93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="14" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3"/>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="16" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="16" t="s">
+      <c r="C95" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="16" t="s">
+      <c r="C96" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="16" t="s">
+      <c r="C97" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="16" t="s">
+      <c r="C98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:5">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="19"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:5">
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" ht="14.25" spans="1:5">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" ht="21" spans="1:5">
+    <row r="102" spans="1:5" ht="20.25">
       <c r="A102" s="3"/>
       <c r="B102" s="5" t="s">
         <v>0</v>
@@ -8229,162 +8210,162 @@
       <c r="C102" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="E102" s="21"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3"/>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3"/>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14" t="s">
+      <c r="C106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3"/>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="16" t="s">
+      <c r="D107" s="11"/>
+      <c r="E107" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3"/>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="16" t="s">
+      <c r="D108" s="13"/>
+      <c r="E108" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16" t="s">
+      <c r="C109" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3"/>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="16" t="s">
+      <c r="D110" s="13"/>
+      <c r="E110" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="16"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="14"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="16"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="16"/>
-    </row>
-    <row r="114" ht="14.25" spans="1:5">
+      <c r="B113" s="18"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="19"/>
-    </row>
-    <row r="115" ht="14.25" spans="1:5">
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="117" ht="14.25" spans="1:5">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" ht="21" spans="1:5">
+    <row r="118" spans="1:5" ht="20.25">
       <c r="A118" s="3"/>
       <c r="B118" s="5" t="s">
         <v>0</v>
@@ -8392,206 +8373,206 @@
       <c r="C118" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="E118" s="8"/>
+      <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3"/>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3"/>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="14" t="s">
+      <c r="D121" s="11"/>
+      <c r="E121" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3"/>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14" t="s">
+      <c r="C122" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="16" t="s">
+      <c r="D123" s="11"/>
+      <c r="E123" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3"/>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="16" t="s">
+      <c r="D124" s="13"/>
+      <c r="E124" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="16" t="s">
+      <c r="D125" s="13"/>
+      <c r="E125" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3"/>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="16" t="s">
+      <c r="D126" s="13"/>
+      <c r="E126" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="13"/>
+      <c r="E127" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="16" t="s">
+      <c r="C128" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="16" t="s">
+      <c r="D129" s="13"/>
+      <c r="E129" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C130" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="16" t="s">
+      <c r="C130" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D131" s="15"/>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="13"/>
+      <c r="E131" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:5">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="19"/>
-    </row>
-    <row r="133" ht="14.25" spans="1:5">
+      <c r="B132" s="15"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" ht="14.25" spans="1:5">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" ht="21" spans="1:5">
+    <row r="135" spans="1:5" ht="20.25">
       <c r="A135" s="3"/>
       <c r="B135" s="5" t="s">
         <v>0</v>
@@ -8599,239 +8580,239 @@
       <c r="C135" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E135" s="8"/>
+      <c r="E135" s="21"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3"/>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="14" t="s">
+      <c r="D138" s="11"/>
+      <c r="E138" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C139" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="14" t="s">
+      <c r="C139" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3"/>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="14" t="s">
+      <c r="D140" s="11"/>
+      <c r="E140" s="12" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3"/>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C141" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="14" t="s">
+      <c r="C141" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3"/>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="16" t="s">
+      <c r="D142" s="11"/>
+      <c r="E142" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3"/>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C143" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="15"/>
-      <c r="E143" s="16" t="s">
+      <c r="C143" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3"/>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D144" s="15"/>
-      <c r="E144" s="16" t="s">
+      <c r="D144" s="13"/>
+      <c r="E144" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="16" t="s">
+      <c r="D145" s="13"/>
+      <c r="E145" s="14" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D146" s="15"/>
-      <c r="E146" s="16" t="s">
+      <c r="D146" s="13"/>
+      <c r="E146" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D147" s="15"/>
-      <c r="E147" s="16" t="s">
+      <c r="D147" s="13"/>
+      <c r="E147" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D148" s="15"/>
-      <c r="E148" s="16" t="s">
+      <c r="D148" s="13"/>
+      <c r="E148" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3"/>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="15"/>
-      <c r="E149" s="16" t="s">
+      <c r="D149" s="13"/>
+      <c r="E149" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3"/>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D150" s="15"/>
-      <c r="E150" s="16" t="s">
+      <c r="D150" s="13"/>
+      <c r="E150" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="16"/>
-    </row>
-    <row r="152" ht="14.25" spans="1:5">
+      <c r="B151" s="18"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="19"/>
-    </row>
-    <row r="153" ht="14.25" spans="1:5">
+      <c r="B152" s="15"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" ht="14.25" spans="1:5">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" ht="21" spans="1:5">
+    <row r="155" spans="1:5" ht="20.25">
       <c r="A155" s="3"/>
       <c r="B155" s="5" t="s">
         <v>0</v>
@@ -8839,162 +8820,162 @@
       <c r="C155" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="E155" s="8"/>
+      <c r="E155" s="21"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3"/>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D158" s="13"/>
-      <c r="E158" s="14" t="s">
+      <c r="D158" s="11"/>
+      <c r="E158" s="12" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C159" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="14" t="s">
+      <c r="C159" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3"/>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D160" s="13"/>
-      <c r="E160" s="16" t="s">
+      <c r="D160" s="11"/>
+      <c r="E160" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="3"/>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C161" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="15"/>
-      <c r="E161" s="16" t="s">
+      <c r="C161" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="13"/>
+      <c r="E161" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="15"/>
-      <c r="E162" s="16" t="s">
+      <c r="C162" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="13"/>
+      <c r="E162" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="15"/>
-      <c r="E163" s="16" t="s">
+      <c r="C163" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="13"/>
+      <c r="E163" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="16"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="14"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="14"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="16"/>
-    </row>
-    <row r="167" ht="14.25" spans="1:5">
+      <c r="B166" s="18"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="19"/>
-    </row>
-    <row r="168" ht="14.25" spans="1:5">
+      <c r="B167" s="15"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" ht="14.25" spans="1:5">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" ht="21" spans="1:5">
+    <row r="170" spans="1:5" ht="20.25">
       <c r="A170" s="3"/>
       <c r="B170" s="5" t="s">
         <v>0</v>
@@ -9002,115 +8983,115 @@
       <c r="C170" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="E170" s="8"/>
+      <c r="E170" s="21"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E172" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3"/>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D173" s="13"/>
-      <c r="E173" s="14" t="s">
+      <c r="D173" s="11"/>
+      <c r="E173" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3"/>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C174" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="13"/>
-      <c r="E174" s="14" t="s">
+      <c r="C174" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="16" t="s">
+      <c r="D175" s="11"/>
+      <c r="E175" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="3"/>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="15"/>
-      <c r="E176" s="16" t="s">
+      <c r="D176" s="13"/>
+      <c r="E176" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:5">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="19"/>
-    </row>
-    <row r="178" ht="14.25" spans="1:5">
+      <c r="B177" s="15"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" ht="14.25" spans="1:5">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" ht="21" spans="1:5">
+    <row r="180" spans="1:5" ht="20.25">
       <c r="A180" s="3"/>
       <c r="B180" s="5" t="s">
         <v>0</v>
@@ -9118,114 +9099,114 @@
       <c r="C180" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="E180" s="8"/>
+      <c r="E180" s="21"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="E182" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="14" t="s">
+      <c r="D183" s="11"/>
+      <c r="E183" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3"/>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="14" t="s">
+      <c r="C184" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3"/>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="16" t="s">
+      <c r="D185" s="11"/>
+      <c r="E185" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="3"/>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="15"/>
-      <c r="E186" s="16" t="s">
+      <c r="C186" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="13"/>
+      <c r="E186" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C187" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="15"/>
-      <c r="E187" s="16" t="s">
+      <c r="C187" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="13"/>
+      <c r="E187" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:5">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="19"/>
-    </row>
-    <row r="189" ht="14.25" spans="1:5">
+      <c r="B188" s="15"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -9234,29 +9215,29 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D135:E135"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D180:E180"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9265,29 +9246,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="64.875" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>578</v>
       </c>
@@ -9307,7 +9288,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>582</v>
       </c>
@@ -9315,7 +9296,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>584</v>
       </c>
@@ -9323,7 +9304,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>586</v>
       </c>
@@ -9331,7 +9312,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>584</v>
       </c>
@@ -9339,7 +9320,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>589</v>
       </c>
@@ -9347,7 +9328,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>591</v>
       </c>
@@ -9355,7 +9336,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>593</v>
       </c>
@@ -9363,7 +9344,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>595</v>
       </c>
@@ -9371,7 +9352,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>584</v>
       </c>
@@ -9379,7 +9360,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>589</v>
       </c>
@@ -9387,7 +9368,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>591</v>
       </c>
@@ -9395,7 +9376,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>593</v>
       </c>
@@ -9403,7 +9384,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>601</v>
       </c>
@@ -9411,7 +9392,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="2:5">
       <c r="D19" t="s">
         <v>593</v>
       </c>
@@ -9419,7 +9400,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>604</v>
       </c>
@@ -9427,7 +9408,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="2:5">
       <c r="D22" t="s">
         <v>584</v>
       </c>
@@ -9435,7 +9416,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>607</v>
       </c>
@@ -9443,7 +9424,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="2:5">
       <c r="D25" t="s">
         <v>591</v>
       </c>
@@ -9451,12 +9432,12 @@
         <v>607</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="2:5">
       <c r="C27" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="2:5">
       <c r="D28" t="s">
         <v>593</v>
       </c>
@@ -9464,7 +9445,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="2:5">
       <c r="D29" t="s">
         <v>584</v>
       </c>
@@ -9472,12 +9453,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="2:5">
       <c r="C31" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="2:5">
       <c r="D32" t="s">
         <v>593</v>
       </c>
@@ -9485,12 +9466,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="3:5">
       <c r="D36" t="s">
         <v>593</v>
       </c>
@@ -9498,12 +9479,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="3:5">
       <c r="D39" t="s">
         <v>584</v>
       </c>
@@ -9512,7 +9493,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
     <sheet name="公式汇报" sheetId="5" r:id="rId5"/>
     <sheet name="MODEL说明" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="684">
   <si>
     <t>TableName</t>
   </si>
@@ -1874,6 +1874,244 @@
   </si>
   <si>
     <t>批量插入条码数据</t>
+  </si>
+  <si>
+    <t>工单表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需扣料数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02002</t>
+  </si>
+  <si>
+    <t>WK02003</t>
+  </si>
+  <si>
+    <t>WK02004</t>
+  </si>
+  <si>
+    <t>WK02005</t>
+  </si>
+  <si>
+    <t>WK02006</t>
+  </si>
+  <si>
+    <t>WK02007</t>
+  </si>
+  <si>
+    <t>WK02008</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(15,3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02009</t>
+  </si>
+  <si>
+    <t>WK01001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01002</t>
+  </si>
+  <si>
+    <t>WK01003</t>
+  </si>
+  <si>
+    <t>WK01004</t>
+  </si>
+  <si>
+    <t>workcenter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02010</t>
+  </si>
+  <si>
+    <t>工单数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01005</t>
+  </si>
+  <si>
+    <t>WK01006</t>
+  </si>
+  <si>
+    <t>成品料号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01007</t>
+  </si>
+  <si>
+    <t>总耗时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01008</t>
+  </si>
+  <si>
+    <t>扣料料号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣料名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣料时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际扣料数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单扣料时间表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序MAPPING表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>END BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>END BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算类型(1、计算 2固定)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定时间(HOURS)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已扣料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02011</t>
+  </si>
+  <si>
+    <t>WK03001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK03002</t>
+  </si>
+  <si>
+    <t>WK03003</t>
+  </si>
+  <si>
+    <t>WK03004</t>
+  </si>
+  <si>
+    <t>WK03005</t>
+  </si>
+  <si>
+    <t>WK03006</t>
+  </si>
+  <si>
+    <t>WK03007</t>
+  </si>
+  <si>
+    <t>WK03008</t>
+  </si>
+  <si>
+    <t>WK03009</t>
+  </si>
+  <si>
+    <t>WK03010</t>
+  </si>
+  <si>
+    <t>汇报状态(1未汇报、2汇报中、3汇报结束)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKCENTER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2617,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3828,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:I40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6565,6 +6803,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="D186:E186"/>
@@ -6573,11 +6816,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D74:E74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9215,6 +9453,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D170:E170"/>
     <mergeCell ref="D180:E180"/>
@@ -9223,11 +9466,6 @@
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9238,14 +9476,499 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1"/>
+    <row r="2" spans="1:5" ht="21" thickTop="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1"/>
+    <row r="14" spans="1:5" ht="21" thickTop="1">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="I19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="14.25" thickBot="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickTop="1" thickBot="1"/>
+    <row r="29" spans="2:9" ht="21" thickTop="1">
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="2:5" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D29:E29"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="699">
   <si>
     <t>TableName</t>
   </si>
@@ -2110,7 +2110,64 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>FG01034</t>
+  </si>
+  <si>
+    <t>FG01035</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91033</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91034</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91035</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGECODE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG01036</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91036</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG01037</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91037</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4066,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:F71"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6826,10 +6883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7686,7 +7743,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="10" t="s">
-        <v>462</v>
+        <v>688</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>11</v>
@@ -7698,1774 +7755,1894 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
+        <v>685</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="20.25">
+      <c r="B39" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3"/>
-      <c r="B40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="E40" s="21"/>
+      <c r="B40" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3"/>
-      <c r="B41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="3"/>
-      <c r="B42" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3"/>
-      <c r="B43" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12" t="s">
-        <v>245</v>
-      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3"/>
-      <c r="B44" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="20.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="14" t="s">
-        <v>251</v>
-      </c>
+      <c r="B46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
-      <c r="B47" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="14" t="s">
-        <v>192</v>
+      <c r="B47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="14" t="s">
-        <v>195</v>
+        <v>8</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="14" t="s">
-        <v>198</v>
+      <c r="E49" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14" t="s">
-        <v>201</v>
+        <v>55</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="s">
-        <v>257</v>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="13"/>
+        <v>469</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
+      <c r="B54" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="14" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.25">
+      <c r="B56" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="E57" s="21"/>
+      <c r="B57" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>6</v>
+      <c r="B58" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="B63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="14" t="s">
-        <v>268</v>
+      <c r="B64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
+      <c r="B65" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.25">
+      <c r="B67" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
-      <c r="B68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="E68" s="21"/>
+      <c r="B68" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>6</v>
+      <c r="B69" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3"/>
-      <c r="B71" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3"/>
-      <c r="B72" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12" t="s">
-        <v>277</v>
-      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3"/>
-      <c r="B73" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="14"/>
+      <c r="B74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="14"/>
+      <c r="B75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="17"/>
+      <c r="B76" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" ht="20.25">
+      <c r="B78" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="E79" s="21"/>
+      <c r="B79" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="14" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3"/>
-      <c r="B82" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3"/>
-      <c r="B83" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3"/>
-      <c r="B84" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" ht="20.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
+      <c r="B85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="20.25">
+      <c r="B87" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
-      <c r="B88" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="E88" s="21"/>
+      <c r="B88" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
-      <c r="B89" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>6</v>
+      <c r="B89" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
-      <c r="B92" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12" t="s">
-        <v>501</v>
-      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
-      <c r="B93" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="14" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="20.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="14" t="s">
-        <v>295</v>
-      </c>
+      <c r="B94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
-      <c r="B95" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="14" t="s">
-        <v>297</v>
+      <c r="B95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="10" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="14" t="s">
-        <v>299</v>
+        <v>8</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="10" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14" t="s">
-        <v>301</v>
+        <v>55</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="10" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14" t="s">
-        <v>303</v>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="17"/>
+      <c r="B99" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="14" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="B100" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" ht="20.25">
+      <c r="B101" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
-      <c r="B102" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="E102" s="21"/>
+      <c r="B102" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
-      <c r="B103" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>6</v>
+      <c r="B103" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="14" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3"/>
-      <c r="B105" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="12" t="s">
-        <v>308</v>
-      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3"/>
-      <c r="B106" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3"/>
-      <c r="B107" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="20.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="14" t="s">
-        <v>312</v>
-      </c>
+      <c r="B108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
-      <c r="B109" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="14" t="s">
-        <v>314</v>
+      <c r="B109" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14" t="s">
-        <v>316</v>
+        <v>511</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14"/>
+      <c r="B111" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="14"/>
+      <c r="B112" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
+      <c r="B113" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="14" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="17"/>
+      <c r="B114" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="B115" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3"/>
+      <c r="B116" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" ht="20.25">
+      <c r="B117" s="18"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
-      <c r="B118" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="E118" s="21"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
-      <c r="B119" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B119" s="18"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3"/>
-      <c r="B120" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3"/>
-      <c r="B121" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="3"/>
-      <c r="B122" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
-      <c r="B123" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="20.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="14" t="s">
-        <v>326</v>
-      </c>
+      <c r="B124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E124" s="21"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
-      <c r="B125" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="14" t="s">
-        <v>328</v>
+      <c r="B125" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="14" t="s">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14" t="s">
-        <v>331</v>
+        <v>521</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14" t="s">
-        <v>333</v>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D129" s="13"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="14" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="14" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>65</v>
+        <v>525</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="14" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="17"/>
+      <c r="B132" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="B133" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="E133" s="14" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" ht="20.25">
+      <c r="B134" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
-      <c r="B135" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="E135" s="21"/>
+      <c r="B135" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
-      <c r="B136" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>6</v>
+      <c r="B136" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3"/>
-      <c r="B138" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="12" t="s">
-        <v>344</v>
-      </c>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
-      <c r="B139" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="11"/>
-      <c r="E139" s="12" t="s">
-        <v>537</v>
-      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3"/>
-      <c r="B140" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="12" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" ht="20.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="11"/>
-      <c r="E141" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3"/>
-      <c r="B142" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="14" t="s">
-        <v>251</v>
+      <c r="B142" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="10" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="14" t="s">
-        <v>351</v>
+        <v>8</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="10" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="14" t="s">
-        <v>353</v>
+        <v>8</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14" t="s">
-        <v>545</v>
+        <v>536</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="12" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="10" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="14" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="12" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="14" t="s">
-        <v>358</v>
+        <v>540</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D148" s="13"/>
+        <v>541</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="11"/>
       <c r="E148" s="14" t="s">
-        <v>360</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>39</v>
+        <v>542</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="14" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>39</v>
+        <v>543</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="14" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="13"/>
+      <c r="B151" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D151" s="13"/>
-      <c r="E151" s="14"/>
+      <c r="E151" s="14" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="17"/>
+      <c r="B152" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="B153" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" s="13"/>
+      <c r="E153" s="14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" ht="20.25">
+      <c r="B154" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="13"/>
+      <c r="E154" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
-      <c r="B155" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="E155" s="21"/>
+      <c r="B155" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="13"/>
+      <c r="E155" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
-      <c r="B156" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>6</v>
+      <c r="B156" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="13"/>
+      <c r="E156" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
-      <c r="B157" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B157" s="18"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="14"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3"/>
-      <c r="B158" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="12" t="s">
-        <v>555</v>
-      </c>
+      <c r="B158" s="15"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
-      <c r="B159" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3"/>
-      <c r="B160" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" ht="20.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="14" t="s">
-        <v>537</v>
-      </c>
+      <c r="B161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
-      <c r="B162" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="14" t="s">
-        <v>560</v>
+      <c r="B162" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="10" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="14" t="s">
-        <v>562</v>
+        <v>8</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="14"/>
+      <c r="B164" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="12" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="14"/>
+      <c r="B165" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="14"/>
+      <c r="B166" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="14" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="17"/>
+      <c r="B167" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="13"/>
+      <c r="E167" s="14" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
+      <c r="B168" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="14" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" ht="20.25">
+      <c r="B169" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
-      <c r="B170" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="E170" s="21"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="14"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
-      <c r="B171" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B171" s="18"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
-      <c r="B172" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B172" s="18"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3"/>
-      <c r="B173" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D173" s="11"/>
-      <c r="E173" s="12" t="s">
-        <v>308</v>
-      </c>
+      <c r="B173" s="15"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="17"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3"/>
-      <c r="B174" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
-      <c r="B175" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D175" s="11"/>
-      <c r="E175" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" ht="20.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="13"/>
-      <c r="E176" s="14" t="s">
-        <v>384</v>
-      </c>
+      <c r="B176" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="E176" s="21"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="17"/>
+      <c r="B177" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="B178" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" ht="20.25">
+      <c r="B179" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="11"/>
+      <c r="E179" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
-      <c r="B180" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D180" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="E180" s="21"/>
+      <c r="B180" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
-      <c r="B181" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>6</v>
+      <c r="B181" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C182" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>9</v>
+      <c r="D182" s="13"/>
+      <c r="E182" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
-      <c r="B183" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D183" s="11"/>
-      <c r="E183" s="12" t="s">
-        <v>389</v>
-      </c>
+      <c r="B183" s="15"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="17"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3"/>
-      <c r="B184" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3"/>
-      <c r="B185" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D185" s="11"/>
-      <c r="E185" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" ht="20.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="13"/>
-      <c r="E186" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="B186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="E186" s="21"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
-      <c r="B187" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="13"/>
-      <c r="E187" s="14" t="s">
-        <v>245</v>
+      <c r="B187" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="17"/>
+      <c r="B188" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
+      <c r="B189" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3"/>
+      <c r="B190" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3"/>
+      <c r="B191" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3"/>
+      <c r="B192" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="13"/>
+      <c r="E192" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="3"/>
+      <c r="B193" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="13"/>
+      <c r="E193" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="3"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D141:E141"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9476,10 +9653,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9672,7 +9849,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:5">
       <c r="B17" s="10" t="s">
         <v>627</v>
       </c>
@@ -9684,7 +9861,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:5">
       <c r="B18" s="10" t="s">
         <v>628</v>
       </c>
@@ -9696,7 +9873,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
         <v>629</v>
       </c>
@@ -9707,11 +9884,8 @@
       <c r="E19" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="I19" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="10" t="s">
         <v>630</v>
       </c>
@@ -9723,7 +9897,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:5">
       <c r="B21" s="10" t="s">
         <v>631</v>
       </c>
@@ -9735,7 +9909,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:5">
       <c r="B22" s="10" t="s">
         <v>632</v>
       </c>
@@ -9747,7 +9921,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:5">
       <c r="B23" s="10" t="s">
         <v>633</v>
       </c>
@@ -9759,7 +9933,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:5">
       <c r="B24" s="10" t="s">
         <v>638</v>
       </c>
@@ -9771,7 +9945,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:5">
       <c r="B25" s="10" t="s">
         <v>644</v>
       </c>
@@ -9783,7 +9957,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:5">
       <c r="B26" s="10" t="s">
         <v>670</v>
       </c>
@@ -9795,14 +9969,14 @@
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.25" thickBot="1">
+    <row r="27" spans="2:5" ht="14.25" thickBot="1">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="2:9" ht="15" thickTop="1" thickBot="1"/>
-    <row r="29" spans="2:9" ht="21" thickTop="1">
+    <row r="28" spans="2:5" ht="15" thickTop="1" thickBot="1"/>
+    <row r="29" spans="2:5" ht="21" thickTop="1">
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
@@ -9814,7 +9988,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
@@ -9828,7 +10002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:5">
       <c r="B31" s="10" t="s">
         <v>671</v>
       </c>
@@ -9842,7 +10016,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:5">
       <c r="B32" s="10" t="s">
         <v>672</v>
       </c>

--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -6860,11 +6860,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="D186:E186"/>
@@ -6873,6 +6868,11 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D74:E74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6885,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -9630,11 +9630,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="D186:E186"/>
@@ -9643,6 +9638,11 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D74:E74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9655,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="700">
   <si>
     <t>TableName</t>
   </si>
@@ -1892,282 +1892,286 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>WK02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需扣料数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02002</t>
+  </si>
+  <si>
+    <t>WK02003</t>
+  </si>
+  <si>
+    <t>WK02004</t>
+  </si>
+  <si>
+    <t>WK02005</t>
+  </si>
+  <si>
+    <t>WK02006</t>
+  </si>
+  <si>
+    <t>WK02007</t>
+  </si>
+  <si>
+    <t>WK02008</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(15,3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02009</t>
+  </si>
+  <si>
+    <t>WK01001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01002</t>
+  </si>
+  <si>
+    <t>WK01003</t>
+  </si>
+  <si>
+    <t>WK01004</t>
+  </si>
+  <si>
+    <t>workcenter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02010</t>
+  </si>
+  <si>
+    <t>工单数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01005</t>
+  </si>
+  <si>
+    <t>WK01006</t>
+  </si>
+  <si>
+    <t>成品料号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01007</t>
+  </si>
+  <si>
+    <t>总耗时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK01008</t>
+  </si>
+  <si>
+    <t>扣料料号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣料名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣料时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际扣料数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单扣料时间表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序MAPPING表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>END BOM OP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>END BOM OP INDEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算类型(1、计算 2固定)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定时间(HOURS)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已扣料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02011</t>
+  </si>
+  <si>
+    <t>WK03001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK03002</t>
+  </si>
+  <si>
+    <t>WK03003</t>
+  </si>
+  <si>
+    <t>WK03004</t>
+  </si>
+  <si>
+    <t>WK03005</t>
+  </si>
+  <si>
+    <t>WK03006</t>
+  </si>
+  <si>
+    <t>WK03007</t>
+  </si>
+  <si>
+    <t>WK03008</t>
+  </si>
+  <si>
+    <t>WK03009</t>
+  </si>
+  <si>
+    <t>WK03010</t>
+  </si>
+  <si>
+    <t>汇报状态(1未汇报、2汇报中、3汇报结束)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKCENTER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG01034</t>
+  </si>
+  <si>
+    <t>FG01035</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91033</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91034</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91035</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGECODE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG01036</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91036</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG01037</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG91037</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>WK01</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>WK02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需扣料数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK02001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK02002</t>
-  </si>
-  <si>
-    <t>WK02003</t>
-  </si>
-  <si>
-    <t>WK02004</t>
-  </si>
-  <si>
-    <t>WK02005</t>
-  </si>
-  <si>
-    <t>WK02006</t>
-  </si>
-  <si>
-    <t>WK02007</t>
-  </si>
-  <si>
-    <t>WK02008</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>numeric(15,3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK02009</t>
-  </si>
-  <si>
-    <t>WK01001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK01002</t>
-  </si>
-  <si>
-    <t>WK01003</t>
-  </si>
-  <si>
-    <t>WK01004</t>
-  </si>
-  <si>
-    <t>workcenter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK02010</t>
-  </si>
-  <si>
-    <t>工单数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK01005</t>
-  </si>
-  <si>
-    <t>WK01006</t>
-  </si>
-  <si>
-    <t>成品料号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK01007</t>
-  </si>
-  <si>
-    <t>总耗时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK01008</t>
-  </si>
-  <si>
-    <t>扣料料号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣料名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM OP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM OP INDEX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣料时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际扣料数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单扣料时间表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>工序MAPPING表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEGIN BOM OP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEGIN BOM OP INDEX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>END BOM OP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>END BOM OP INDEX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算类型(1、计算 2固定)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定时间(HOURS)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已扣料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK02011</t>
-  </si>
-  <si>
-    <t>WK03001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WK03002</t>
-  </si>
-  <si>
-    <t>WK03003</t>
-  </si>
-  <si>
-    <t>WK03004</t>
-  </si>
-  <si>
-    <t>WK03005</t>
-  </si>
-  <si>
-    <t>WK03006</t>
-  </si>
-  <si>
-    <t>WK03007</t>
-  </si>
-  <si>
-    <t>WK03008</t>
-  </si>
-  <si>
-    <t>WK03009</t>
-  </si>
-  <si>
-    <t>WK03010</t>
-  </si>
-  <si>
-    <t>汇报状态(1未汇报、2汇报中、3汇报结束)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORKCENTER</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG01034</t>
-  </si>
-  <si>
-    <t>FG01035</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG91033</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG91034</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG91035</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGECODE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG01036</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG91036</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG01037</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG91037</t>
+    <t>状态(1未扫描2已入库3移库中4已出库5作废)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4123,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4955,7 +4959,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="10" t="s">
@@ -6860,6 +6864,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="D186:E186"/>
@@ -6868,11 +6877,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D74:E74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6886,7 +6890,7 @@
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7715,7 +7719,7 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="10" t="s">
@@ -7743,7 +7747,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>11</v>
@@ -7756,97 +7760,97 @@
     <row r="37" spans="1:11">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3"/>
       <c r="B38" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>693</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3"/>
       <c r="B40" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>697</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -9630,6 +9634,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="D186:E186"/>
@@ -9638,11 +9647,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D74:E74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9655,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9673,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>618</v>
@@ -9698,7 +9702,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>135</v>
@@ -9713,49 +9717,49 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
@@ -9765,10 +9769,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
@@ -9778,27 +9782,27 @@
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1">
@@ -9814,10 +9818,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E14" s="21"/>
     </row>
@@ -9837,21 +9841,21 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>135</v>
@@ -9863,110 +9867,110 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" thickBot="1">
@@ -9981,10 +9985,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>661</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>662</v>
       </c>
       <c r="E29" s="21"/>
     </row>
@@ -10004,124 +10008,124 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="2:5">

--- a/databaseqingpu.xlsx
+++ b/databaseqingpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="719">
   <si>
     <t>TableName</t>
   </si>
@@ -1913,9 +1913,6 @@
   </si>
   <si>
     <t>扣料时间</t>
-  </si>
-  <si>
-    <t>WK02009</t>
   </si>
   <si>
     <t>实际扣料数量</t>
@@ -2127,6 +2124,77 @@
   </si>
   <si>
     <t>RW01006</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK02009</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK04001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WK04002</t>
+  </si>
+  <si>
+    <t>WK04003</t>
+  </si>
+  <si>
+    <t>WK04004</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKCENTER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKCENTER时间表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW01037</t>
+  </si>
+  <si>
+    <t>RW01038</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2871,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -4080,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K195"/>
+  <dimension ref="A2:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4283,7 +4351,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -4866,7 +4934,7 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="13" t="s">
-        <v>221</v>
+        <v>712</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="9" t="s">
@@ -5026,941 +5094,970 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="B41" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13" t="s">
+        <v>713</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="3"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:11" ht="20.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="20.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
-      <c r="B47" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11" t="s">
-        <v>244</v>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E48" s="11" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="13" t="s">
-        <v>250</v>
+      <c r="E50" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="13" t="s">
-        <v>191</v>
+      <c r="E51" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="13" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="13" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>30</v>
+        <v>254</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="13" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
+      <c r="B58" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11" t="s">
-        <v>246</v>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E65" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="13" t="s">
-        <v>250</v>
+      <c r="E66" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="13" t="s">
-        <v>191</v>
+      <c r="E67" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="13" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="13" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="13" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16"/>
+      <c r="B71" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="B72" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
-      <c r="B74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="21"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3"/>
-      <c r="B77" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11" t="s">
-        <v>246</v>
+      <c r="B77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E78" s="11" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="13" t="s">
-        <v>244</v>
+      <c r="E79" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="13" t="s">
-        <v>258</v>
+      <c r="E80" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
+      <c r="B82" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-    </row>
-    <row r="85" spans="1:5" ht="20.25">
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
-      <c r="B85" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="21"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
-      <c r="B86" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="1:5" ht="20.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E87" s="21"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3"/>
-      <c r="B88" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11" t="s">
-        <v>246</v>
+      <c r="B88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E89" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D90" s="10"/>
-      <c r="E90" s="13" t="s">
-        <v>250</v>
+      <c r="E90" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
+      <c r="B91" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
+      <c r="B92" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-    </row>
-    <row r="94" spans="1:5" ht="20.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
-      <c r="B94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E94" s="21"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
-      <c r="B95" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="1:5" ht="20.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
-      <c r="B97" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11" t="s">
-        <v>246</v>
+      <c r="B97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E98" s="11" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D99" s="10"/>
-      <c r="E99" s="13" t="s">
-        <v>292</v>
+      <c r="E99" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100" s="10"/>
-      <c r="E100" s="13" t="s">
-        <v>294</v>
+      <c r="E100" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="D102" s="10"/>
       <c r="E102" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="12"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="16"/>
+      <c r="B105" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="13" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="B106" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-    </row>
-    <row r="108" spans="1:5" ht="20.25">
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
-      <c r="B108" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" s="21"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3"/>
-      <c r="B109" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+    </row>
+    <row r="110" spans="1:5" ht="20.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="21"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
-      <c r="B111" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11" t="s">
-        <v>307</v>
+      <c r="B111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E112" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D113" s="10"/>
-      <c r="E113" s="13" t="s">
-        <v>250</v>
+      <c r="E113" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D115" s="10"/>
       <c r="E115" s="13" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>8</v>
+        <v>312</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="12"/>
+      <c r="B118" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="13" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="12"/>
+      <c r="B119" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D119" s="12"/>
-      <c r="E119" s="13"/>
+      <c r="E119" s="13" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="16"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
@@ -5969,587 +6066,580 @@
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
     </row>
-    <row r="124" spans="1:5" ht="20.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="E124" s="21"/>
-    </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3"/>
-      <c r="B125" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+    </row>
+    <row r="126" spans="1:5" ht="20.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B126" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" s="21"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3"/>
-      <c r="B127" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11" t="s">
-        <v>307</v>
+      <c r="B127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E128" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D129" s="10"/>
-      <c r="E129" s="13" t="s">
-        <v>250</v>
+      <c r="E129" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="13" t="s">
-        <v>325</v>
+        <v>11</v>
+      </c>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="10"/>
       <c r="E131" s="13" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="13" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="13" t="s">
-        <v>332</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>65</v>
+        <v>329</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="16"/>
+      <c r="B138" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="13" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
+      <c r="B139" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="13" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-    </row>
-    <row r="141" spans="1:5" ht="20.25">
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
-      <c r="B141" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E141" s="21"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3"/>
-      <c r="B142" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+    </row>
+    <row r="143" spans="1:5" ht="20.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3"/>
-      <c r="B144" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="11" t="s">
-        <v>343</v>
+      <c r="B144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E145" s="11" t="s">
-        <v>345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="11" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="11" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D148" s="10"/>
-      <c r="E148" s="13" t="s">
-        <v>250</v>
+      <c r="E148" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="13" t="s">
-        <v>350</v>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D150" s="10"/>
       <c r="E150" s="13" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>39</v>
+        <v>349</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="13" t="s">
-        <v>147</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>39</v>
+        <v>355</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="13" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="12"/>
+      <c r="B157" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="D157" s="12"/>
-      <c r="E157" s="13"/>
+      <c r="E157" s="13" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="16"/>
+      <c r="B158" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="13" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-    </row>
-    <row r="161" spans="1:5" ht="20.25">
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
-      <c r="B161" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D161" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="E161" s="21"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3"/>
-      <c r="B162" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+    </row>
+    <row r="163" spans="1:5" ht="20.25">
       <c r="A163" s="3"/>
-      <c r="B163" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E163" s="21"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3"/>
-      <c r="B164" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D164" s="10"/>
-      <c r="E164" s="11" t="s">
-        <v>368</v>
+      <c r="B164" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E165" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D166" s="10"/>
-      <c r="E166" s="13" t="s">
-        <v>250</v>
+      <c r="E166" s="11" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="12"/>
-      <c r="E167" s="13" t="s">
-        <v>345</v>
+      <c r="D167" s="10"/>
+      <c r="E167" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D168" s="10"/>
       <c r="E168" s="13" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="13" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="3"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="12"/>
+      <c r="B170" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D170" s="12"/>
-      <c r="E170" s="13"/>
+      <c r="E170" s="13" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="12"/>
+      <c r="B171" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D171" s="12"/>
-      <c r="E171" s="13"/>
+      <c r="E171" s="13" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="3"/>
@@ -6560,282 +6650,296 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="16"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-    </row>
-    <row r="176" spans="1:5" ht="20.25">
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="16"/>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
-      <c r="B176" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D176" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="E176" s="21"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3"/>
-      <c r="B177" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+    </row>
+    <row r="178" spans="1:5" ht="20.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B178" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E178" s="21"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
-      <c r="B179" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="11" t="s">
-        <v>307</v>
+      <c r="B179" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E180" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D181" s="10"/>
-      <c r="E181" s="13" t="s">
-        <v>250</v>
+      <c r="E181" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="12"/>
-      <c r="E182" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="16"/>
+      <c r="B183" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
+      <c r="B184" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="12"/>
+      <c r="E184" s="13" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-    </row>
-    <row r="186" spans="1:5" ht="20.25">
+      <c r="B185" s="14"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="16"/>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
-      <c r="B186" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D186" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" s="21"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
-      <c r="B187" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+    </row>
+    <row r="188" spans="1:5" ht="20.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B188" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E188" s="21"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3"/>
-      <c r="B189" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D189" s="10"/>
-      <c r="E189" s="11" t="s">
-        <v>388</v>
+      <c r="B189" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E190" s="11" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D191" s="10"/>
-      <c r="E191" s="13" t="s">
-        <v>250</v>
+      <c r="E191" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="13" t="s">
-        <v>392</v>
+      <c r="D192" s="10"/>
+      <c r="E192" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D193" s="10"/>
       <c r="E193" s="13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="3"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="16"/>
+      <c r="B194" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="12"/>
+      <c r="E194" s="13" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
+      <c r="B195" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="3"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="16"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="3"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D141:E141"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D143:E143"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6844,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7633,7 +7737,7 @@
         <v>456</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>11</v>
+        <v>718</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="13" t="s">
@@ -9633,6 +9737,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D163:E163"/>
     <mergeCell ref="D178:E178"/>
     <mergeCell ref="D188:E188"/>
@@ -9641,25 +9750,20 @@
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="D126:E126"/>
     <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D76:E76"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9815,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>614</v>
@@ -9859,7 +9963,7 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -9879,7 +9983,7 @@
         <v>620</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="13" t="s">
@@ -9927,7 +10031,7 @@
         <v>629</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
@@ -9936,38 +10040,38 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="9" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -9981,10 +10085,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>637</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>638</v>
       </c>
       <c r="E29" s="21"/>
     </row>
@@ -10004,7 +10108,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>8</v>
@@ -10018,7 +10122,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>135</v>
@@ -10030,7 +10134,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>65</v>
@@ -10042,86 +10146,86 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>623</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>623</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>623</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>623</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>623</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>610</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -10136,11 +10240,96 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
+    <row r="43" spans="2:5" ht="15" thickTop="1" thickBot="1"/>
+    <row r="44" spans="2:5" ht="21" thickTop="1">
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10166,226 +10355,226 @@
   <sheetData>
     <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" t="s">
         <v>660</v>
-      </c>
-      <c r="C3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4" t="s">
         <v>662</v>
-      </c>
-      <c r="E4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" t="s">
         <v>664</v>
-      </c>
-      <c r="C6" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
         <v>667</v>
-      </c>
-      <c r="E8" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" t="s">
+        <v>668</v>
+      </c>
+      <c r="E9" t="s">
         <v>669</v>
-      </c>
-      <c r="E9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" t="s">
         <v>671</v>
-      </c>
-      <c r="E10" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" t="s">
         <v>673</v>
-      </c>
-      <c r="C12" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" t="s">
         <v>679</v>
-      </c>
-      <c r="C18" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="D19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
+        <v>681</v>
+      </c>
+      <c r="C21" t="s">
         <v>682</v>
-      </c>
-      <c r="C21" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="D22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
+        <v>684</v>
+      </c>
+      <c r="C24" t="s">
         <v>685</v>
-      </c>
-      <c r="C24" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="D25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="C27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="D28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="D29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="D32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="D36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="D39" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
